--- a/项目梳理.xlsx
+++ b/项目梳理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiLang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\LearningLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>论文大纲</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,6 +186,29 @@
   <si>
     <t>稳定的创
 作方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX要素
+看完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看About
+FACE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>看
+精益创业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UXUI作品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -417,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,6 +553,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,7 +892,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -867,12 +902,14 @@
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.21875" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -911,6 +948,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
       <c r="B2">
         <v>29</v>
       </c>
@@ -923,9 +961,12 @@
       <c r="I2" s="27"/>
       <c r="J2" s="21"/>
       <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+      <c r="M2" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
       <c r="B3">
         <v>30</v>
       </c>
@@ -958,7 +999,7 @@
       <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="36">
         <v>12</v>
       </c>
       <c r="B4">
@@ -976,6 +1017,7 @@
       <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -993,6 +1035,7 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1004,7 +1047,7 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
       <c r="K6" s="1"/>
@@ -1012,6 +1055,7 @@
       <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1021,14 +1065,17 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="1"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
+      <c r="M7" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
       <c r="B8">
         <v>5</v>
       </c>
@@ -1038,7 +1085,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="1"/>
@@ -1056,27 +1103,29 @@
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="2"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="21"/>
       <c r="K10" s="1"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1085,9 +1134,11 @@
       <c r="F11" s="12"/>
       <c r="G11" s="2"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
     </row>
@@ -1137,12 +1188,14 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="1"/>
       <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -1152,7 +1205,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="1"/>
@@ -1170,7 +1223,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="22"/>
       <c r="M16" s="23"/>
     </row>
@@ -1178,7 +1231,7 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="6"/>
@@ -1187,7 +1240,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="1"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -1199,9 +1252,11 @@
       <c r="F18" s="12"/>
       <c r="G18" s="6"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="J18" s="21"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="22"/>
       <c r="M18" s="23"/>
       <c r="N18" s="25"/>
@@ -1254,7 +1309,7 @@
       <c r="M20" s="26"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1264,12 +1319,18 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="J21" s="21"/>
       <c r="K21" s="1"/>
       <c r="L21" s="22"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="23">
+        <v>4</v>
+      </c>
       <c r="N21" s="25"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -1282,7 +1343,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="1"/>
@@ -1301,7 +1362,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="22"/>
       <c r="M23" s="23"/>
       <c r="N23" s="25"/>
@@ -1310,7 +1371,7 @@
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="6"/>
@@ -1319,7 +1380,7 @@
       <c r="J24" s="21"/>
       <c r="K24" s="1"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="24"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -1333,7 +1394,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="22"/>
       <c r="M25" s="23"/>
       <c r="N25" s="25"/>
@@ -1384,12 +1445,14 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="18"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="1"/>
       <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
+      <c r="M28" s="23">
+        <v>5</v>
+      </c>
       <c r="N28" s="25"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -1400,7 +1463,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="1"/>
@@ -1419,7 +1482,7 @@
       <c r="H30" s="18"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="22"/>
       <c r="M30" s="23"/>
       <c r="N30" s="25"/>
@@ -1428,7 +1491,7 @@
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="6"/>
@@ -1437,7 +1500,7 @@
       <c r="J31" s="21"/>
       <c r="K31" s="1"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -1455,7 +1518,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="22"/>
       <c r="M32" s="23"/>
       <c r="N32" s="25"/>
@@ -1502,14 +1565,16 @@
       <c r="D35" s="3"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="H35" s="18"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="20"/>
       <c r="J35" s="31" t="s">
         <v>33</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="26">
+        <v>6</v>
+      </c>
       <c r="N35" s="25"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -1519,7 +1584,7 @@
       <c r="D36" s="8"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="H36" s="18"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="1"/>
@@ -1537,7 +1602,7 @@
       <c r="H37" s="18"/>
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="22"/>
       <c r="M37" s="23"/>
       <c r="N37" s="25"/>
@@ -1546,7 +1611,7 @@
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="H38" s="18"/>
@@ -1554,7 +1619,7 @@
       <c r="J38" s="21"/>
       <c r="K38" s="1"/>
       <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -1567,7 +1632,7 @@
       <c r="H39" s="18"/>
       <c r="I39" s="20"/>
       <c r="J39" s="21"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="5"/>
       <c r="L39" s="22"/>
       <c r="M39" s="23"/>
     </row>
@@ -1608,19 +1673,21 @@
         <v>8</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="H42" s="18"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="20"/>
       <c r="J42" s="21"/>
       <c r="K42" s="1"/>
       <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
+      <c r="M42" s="23">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>9</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="20"/>
       <c r="J43" s="21"/>
       <c r="K43" s="1"/>
@@ -1632,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="8"/>
-      <c r="H44" s="18"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="20"/>
       <c r="J44" s="21"/>
       <c r="K44" s="1"/>
@@ -1643,7 +1710,7 @@
       <c r="B45">
         <v>11</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="4"/>
       <c r="H45" s="18"/>
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
@@ -1656,7 +1723,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="8"/>
-      <c r="H46" s="18"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
       <c r="K46" s="1"/>
@@ -1692,19 +1759,21 @@
         <v>15</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="H49" s="18"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="20"/>
       <c r="J49" s="21"/>
       <c r="K49" s="1"/>
       <c r="L49" s="22"/>
-      <c r="M49" s="23"/>
+      <c r="M49" s="23">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>16</v>
       </c>
       <c r="D50" s="8"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="20"/>
       <c r="J50" s="21"/>
       <c r="K50" s="1"/>
@@ -1716,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="8"/>
-      <c r="H51" s="18"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="20"/>
       <c r="J51" s="21"/>
       <c r="K51" s="1"/>
@@ -1727,7 +1796,7 @@
       <c r="B52">
         <v>18</v>
       </c>
-      <c r="D52" s="8"/>
+      <c r="D52" s="4"/>
       <c r="H52" s="18"/>
       <c r="I52" s="20"/>
       <c r="J52" s="21"/>
@@ -1740,7 +1809,7 @@
         <v>19</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="H53" s="18"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
       <c r="K53" s="1"/>
@@ -1778,19 +1847,21 @@
         <v>22</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="H56" s="18"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
       <c r="K56" s="1"/>
       <c r="L56" s="22"/>
-      <c r="M56" s="23"/>
+      <c r="M56" s="23">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>23</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="H57" s="18"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="20"/>
       <c r="J57" s="21"/>
       <c r="K57" s="1"/>
@@ -1806,14 +1877,14 @@
       <c r="I58" s="20"/>
       <c r="J58" s="21"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="22"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="23"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>25</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="4"/>
       <c r="H59" s="18"/>
       <c r="I59" s="20"/>
       <c r="J59" s="21"/>
@@ -1830,7 +1901,7 @@
       <c r="I60" s="20"/>
       <c r="J60" s="21"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="22"/>
+      <c r="L60" s="35"/>
       <c r="M60" s="23"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -1864,10 +1935,12 @@
       <c r="D63" s="8"/>
       <c r="H63" s="18"/>
       <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
+      <c r="J63" s="31"/>
       <c r="K63" s="1"/>
       <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
+      <c r="M63" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
@@ -1876,7 +1949,7 @@
       <c r="D64" s="8"/>
       <c r="H64" s="18"/>
       <c r="I64" s="20"/>
-      <c r="J64" s="21"/>
+      <c r="J64" s="31"/>
       <c r="K64" s="1"/>
       <c r="L64" s="22"/>
       <c r="M64" s="23"/>
@@ -1890,7 +1963,7 @@
       <c r="I65" s="20"/>
       <c r="J65" s="21"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="22"/>
+      <c r="L65" s="35"/>
       <c r="M65" s="23"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -1900,7 +1973,7 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="4"/>
       <c r="H66" s="18"/>
       <c r="I66" s="20"/>
       <c r="J66" s="21"/>
@@ -1917,7 +1990,7 @@
       <c r="I67" s="20"/>
       <c r="J67" s="21"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="22"/>
+      <c r="L67" s="35"/>
       <c r="M67" s="23"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -1953,10 +2026,12 @@
       <c r="D70" s="8"/>
       <c r="H70" s="18"/>
       <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
+      <c r="J70" s="31"/>
       <c r="K70" s="1"/>
       <c r="L70" s="22"/>
-      <c r="M70" s="23"/>
+      <c r="M70" s="23">
+        <v>11</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B71">
@@ -1965,7 +2040,7 @@
       <c r="D71" s="8"/>
       <c r="H71" s="18"/>
       <c r="I71" s="20"/>
-      <c r="J71" s="21"/>
+      <c r="J71" s="31"/>
       <c r="K71" s="1"/>
       <c r="L71" s="22"/>
       <c r="M71" s="23"/>
@@ -1979,14 +2054,14 @@
       <c r="I72" s="20"/>
       <c r="J72" s="21"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="22"/>
+      <c r="L72" s="35"/>
       <c r="M72" s="23"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>8</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="4"/>
       <c r="H73" s="18"/>
       <c r="I73" s="20"/>
       <c r="J73" s="21"/>
@@ -2003,7 +2078,7 @@
       <c r="I74" s="20"/>
       <c r="J74" s="21"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="22"/>
+      <c r="L74" s="35"/>
       <c r="M74" s="23"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -2037,10 +2112,12 @@
       <c r="D77" s="8"/>
       <c r="H77" s="18"/>
       <c r="I77" s="20"/>
-      <c r="J77" s="21"/>
+      <c r="J77" s="31"/>
       <c r="K77" s="1"/>
       <c r="L77" s="22"/>
-      <c r="M77" s="23"/>
+      <c r="M77" s="23">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78">
@@ -2049,7 +2126,7 @@
       <c r="D78" s="8"/>
       <c r="H78" s="18"/>
       <c r="I78" s="20"/>
-      <c r="J78" s="21"/>
+      <c r="J78" s="31"/>
       <c r="K78" s="1"/>
       <c r="L78" s="22"/>
       <c r="M78" s="23"/>
@@ -2063,14 +2140,14 @@
       <c r="I79" s="20"/>
       <c r="J79" s="21"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="22"/>
+      <c r="L79" s="35"/>
       <c r="M79" s="23"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>15</v>
       </c>
-      <c r="D80" s="8"/>
+      <c r="D80" s="4"/>
       <c r="H80" s="18"/>
       <c r="I80" s="20"/>
       <c r="J80" s="21"/>
@@ -2087,7 +2164,7 @@
       <c r="I81" s="20"/>
       <c r="J81" s="21"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="22"/>
+      <c r="L81" s="35"/>
       <c r="M81" s="23"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -2121,10 +2198,12 @@
       <c r="D84" s="8"/>
       <c r="H84" s="18"/>
       <c r="I84" s="20"/>
-      <c r="J84" s="21"/>
+      <c r="J84" s="31"/>
       <c r="K84" s="1"/>
       <c r="L84" s="22"/>
-      <c r="M84" s="23"/>
+      <c r="M84" s="23">
+        <v>13</v>
+      </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
@@ -2133,7 +2212,7 @@
       <c r="D85" s="8"/>
       <c r="H85" s="18"/>
       <c r="I85" s="20"/>
-      <c r="J85" s="21"/>
+      <c r="J85" s="31"/>
       <c r="K85" s="1"/>
       <c r="L85" s="22"/>
       <c r="M85" s="23"/>
@@ -2147,14 +2226,14 @@
       <c r="I86" s="20"/>
       <c r="J86" s="21"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="22"/>
+      <c r="L86" s="35"/>
       <c r="M86" s="23"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>22</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="4"/>
       <c r="H87" s="18"/>
       <c r="I87" s="20"/>
       <c r="J87" s="21"/>
@@ -2171,7 +2250,7 @@
       <c r="I88" s="20"/>
       <c r="J88" s="21"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="22"/>
+      <c r="L88" s="35"/>
       <c r="M88" s="23"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -2207,19 +2286,21 @@
       <c r="D91" s="8"/>
       <c r="H91" s="18"/>
       <c r="I91" s="20"/>
-      <c r="J91" s="21"/>
+      <c r="J91" s="31"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="23"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="23">
+        <v>14</v>
+      </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>27</v>
       </c>
-      <c r="D92" s="8"/>
+      <c r="D92" s="4"/>
       <c r="H92" s="18"/>
       <c r="I92" s="20"/>
-      <c r="J92" s="21"/>
+      <c r="J92" s="31"/>
       <c r="K92" s="1"/>
       <c r="L92" s="22"/>
       <c r="M92" s="23"/>
@@ -2233,7 +2314,7 @@
       <c r="I93" s="20"/>
       <c r="J93" s="21"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="22"/>
+      <c r="L93" s="35"/>
       <c r="M93" s="23"/>
     </row>
   </sheetData>

--- a/项目梳理.xlsx
+++ b/项目梳理.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>论文大纲</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>借书</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,6 +205,10 @@
   </si>
   <si>
     <t>UXUI作品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +892,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -941,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -955,9 +955,8 @@
       <c r="C2" s="32"/>
       <c r="D2" s="8"/>
       <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="12"/>
+        <v>17</v>
+      </c>
       <c r="I2" s="27"/>
       <c r="J2" s="21"/>
       <c r="L2" s="22"/>
@@ -977,24 +976,23 @@
         <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="12"/>
+        <v>17</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="23"/>
     </row>
@@ -1007,7 +1005,6 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
       <c r="H4" s="17"/>
       <c r="I4" s="19"/>
@@ -1023,9 +1020,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="2"/>
       <c r="H5" s="17"/>
       <c r="I5" s="19"/>
@@ -1043,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="2"/>
@@ -1098,7 +1093,9 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="12">
+        <v>12</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="18"/>
       <c r="I9" s="20"/>
@@ -1117,7 +1114,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="18"/>
       <c r="I10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="1"/>
@@ -1135,7 +1132,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="18"/>
       <c r="I11" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="5"/>
@@ -1148,9 +1145,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="2"/>
       <c r="H12" s="18"/>
       <c r="I12" s="20"/>
@@ -1167,11 +1162,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="12">
+        <v>24</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="20"/>
@@ -1233,7 +1230,9 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12">
+        <v>36</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="18"/>
       <c r="I17" s="20"/>
@@ -1253,7 +1252,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="18"/>
       <c r="I18" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="5"/>
@@ -1269,9 +1268,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="6"/>
       <c r="H19" s="18"/>
       <c r="I19" s="20"/>
@@ -1289,22 +1286,22 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="1"/>
       <c r="L20" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="25"/>
@@ -1317,13 +1314,15 @@
         <v>15</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12">
+        <v>48</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="1"/>
@@ -1389,7 +1388,9 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="18"/>
       <c r="I25" s="20"/>
@@ -1405,11 +1406,9 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F26" s="12"/>
       <c r="G26" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="20"/>
@@ -1425,7 +1424,7 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="6"/>
@@ -1509,11 +1508,9 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F32" s="12"/>
       <c r="G32" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="20"/>
@@ -1529,7 +1526,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="12"/>
       <c r="H33" s="18"/>
@@ -1568,7 +1565,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="20"/>
       <c r="J35" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="22"/>
@@ -1835,7 +1832,7 @@
       <c r="D55" s="8"/>
       <c r="H55" s="18"/>
       <c r="I55" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="1"/>
@@ -2013,7 +2010,7 @@
       <c r="H69" s="18"/>
       <c r="I69" s="20"/>
       <c r="J69" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="22"/>
@@ -2272,7 +2269,7 @@
       <c r="D90" s="8"/>
       <c r="H90" s="18"/>
       <c r="I90" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J90" s="21"/>
       <c r="K90" s="1"/>

--- a/项目梳理.xlsx
+++ b/项目梳理.xlsx
@@ -892,7 +892,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1088,7 @@
       <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
       <c r="B9">
         <v>6</v>
       </c>

--- a/项目梳理.xlsx
+++ b/项目梳理.xlsx
@@ -892,7 +892,7 @@
   <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1106,7 @@
       <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="B10">
         <v>7</v>
       </c>
@@ -1124,6 +1125,7 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
       <c r="B11">
         <v>8</v>
       </c>
@@ -1141,6 +1143,7 @@
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1156,6 +1159,7 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1179,6 +1183,7 @@
       <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1196,6 +1201,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
       <c r="B15">
         <v>12</v>
       </c>

--- a/项目梳理.xlsx
+++ b/项目梳理.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\LearningLab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yilang/Desktop/Github/LearningLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10380" xr2:uid="{121B729C-D273-4D92-B1BA-155462086095}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23020" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>论文大纲</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,12 +217,19 @@
     <t>产出60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>提前完成</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qian'wan'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +305,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFE7DDFF"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -446,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,6 +581,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,27 +915,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB09BC47-95EA-4909-B85F-E705D145D3AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="124" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="36"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
@@ -947,7 +974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
       <c r="B2">
         <v>29</v>
@@ -964,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="64.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3">
         <v>30</v>
@@ -996,7 +1023,7 @@
       </c>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <v>12</v>
       </c>
@@ -1013,7 +1040,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -1029,7 +1056,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -1049,7 +1076,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -1069,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8">
         <v>5</v>
@@ -1087,7 +1114,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9">
         <v>6</v>
@@ -1105,7 +1132,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10">
         <v>7</v>
@@ -1124,7 +1151,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11">
         <v>8</v>
@@ -1142,7 +1169,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="1">
         <v>9</v>
@@ -1158,7 +1185,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -1182,7 +1209,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -1200,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15">
         <v>12</v>
@@ -1216,7 +1243,8 @@
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
       <c r="B16">
         <v>13</v>
       </c>
@@ -1231,7 +1259,8 @@
       <c r="L16" s="22"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
       <c r="B17">
         <v>14</v>
       </c>
@@ -1249,7 +1278,8 @@
       <c r="M17" s="2"/>
       <c r="N17" s="24"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
       <c r="B18">
         <v>15</v>
       </c>
@@ -1267,7 +1297,8 @@
       <c r="M18" s="23"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1285,7 +1316,8 @@
       <c r="M19" s="2"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="2:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -1313,7 +1345,8 @@
       <c r="M20" s="26"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="2:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1339,7 +1372,8 @@
       </c>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="39"/>
       <c r="B22">
         <v>19</v>
       </c>
@@ -1357,7 +1391,8 @@
       <c r="M22" s="23"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="39"/>
       <c r="B23">
         <v>20</v>
       </c>
@@ -1373,7 +1408,8 @@
       <c r="M23" s="23"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="39"/>
       <c r="B24">
         <v>21</v>
       </c>
@@ -1389,7 +1425,8 @@
       <c r="M24" s="2"/>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="39"/>
       <c r="B25">
         <v>22</v>
       </c>
@@ -1407,7 +1444,8 @@
       <c r="M25" s="23"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="39"/>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -1425,7 +1463,8 @@
       <c r="M26" s="2"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="39"/>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -1443,13 +1482,16 @@
       <c r="M27" s="26"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="30"/>
       <c r="I28" s="20"/>
@@ -1461,13 +1503,13 @@
       </c>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="6"/>
       <c r="H29" s="30"/>
       <c r="I29" s="20"/>
@@ -1477,13 +1519,13 @@
       <c r="M29" s="23"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="6"/>
       <c r="H30" s="18"/>
       <c r="I30" s="20"/>
@@ -1493,13 +1535,13 @@
       <c r="M30" s="23"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="6"/>
       <c r="H31" s="18"/>
       <c r="I31" s="20"/>
@@ -1509,13 +1551,13 @@
       <c r="M31" s="2"/>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="16" t="s">
         <v>22</v>
       </c>
@@ -1527,7 +1569,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -1535,7 +1577,7 @@
       <c r="E33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="2"/>
       <c r="H33" s="18"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
@@ -1544,13 +1586,13 @@
       <c r="M33" s="2"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>31</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="2"/>
       <c r="H34" s="18"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
@@ -1559,7 +1601,7 @@
       <c r="M34" s="26"/>
       <c r="N34" s="25"/>
     </row>
-    <row r="35" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1568,7 +1610,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="2"/>
       <c r="H35" s="30"/>
       <c r="I35" s="20"/>
       <c r="J35" s="31" t="s">
@@ -1581,13 +1623,13 @@
       </c>
       <c r="N35" s="25"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="2"/>
       <c r="H36" s="30"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
@@ -1596,13 +1638,13 @@
       <c r="M36" s="23"/>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>3</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="2"/>
       <c r="H37" s="18"/>
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
@@ -1611,13 +1653,13 @@
       <c r="M37" s="23"/>
       <c r="N37" s="25"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>4</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="2"/>
       <c r="H38" s="18"/>
       <c r="I38" s="20"/>
       <c r="J38" s="21"/>
@@ -1626,13 +1668,13 @@
       <c r="M38" s="2"/>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>5</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="2"/>
       <c r="H39" s="18"/>
       <c r="I39" s="20"/>
       <c r="J39" s="21"/>
@@ -1640,13 +1682,13 @@
       <c r="L39" s="22"/>
       <c r="M39" s="23"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>6</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="2"/>
       <c r="H40" s="18"/>
       <c r="I40" s="20"/>
       <c r="J40" s="21"/>
@@ -1654,7 +1696,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>7</v>
       </c>
@@ -1662,9 +1704,7 @@
       <c r="E41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="F41" s="38"/>
       <c r="H41" s="18"/>
       <c r="I41" s="20"/>
       <c r="J41" s="21"/>
@@ -1672,7 +1712,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>8</v>
       </c>
@@ -1686,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>9</v>
       </c>
@@ -1698,7 +1738,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>10</v>
       </c>
@@ -1710,7 +1750,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>11</v>
       </c>
@@ -1722,7 +1762,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>12</v>
       </c>
@@ -1734,7 +1774,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>13</v>
       </c>
@@ -1746,7 +1786,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>14</v>
       </c>
@@ -1758,7 +1798,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="26"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>15</v>
       </c>
@@ -1772,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>16</v>
       </c>
@@ -1784,7 +1824,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>17</v>
       </c>
@@ -1796,7 +1836,7 @@
       <c r="L51" s="22"/>
       <c r="M51" s="23"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>18</v>
       </c>
@@ -1808,7 +1848,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="23"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>19</v>
       </c>
@@ -1820,7 +1860,7 @@
       <c r="L53" s="22"/>
       <c r="M53" s="23"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>20</v>
       </c>
@@ -1832,7 +1872,7 @@
       <c r="L54" s="22"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>21</v>
       </c>
@@ -1846,7 +1886,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>22</v>
       </c>
@@ -1860,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>23</v>
       </c>
@@ -1872,7 +1912,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="23"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>24</v>
       </c>
@@ -1884,7 +1924,7 @@
       <c r="L58" s="35"/>
       <c r="M58" s="23"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>25</v>
       </c>
@@ -1896,7 +1936,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="23"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>26</v>
       </c>
@@ -1908,7 +1948,7 @@
       <c r="L60" s="35"/>
       <c r="M60" s="23"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>27</v>
       </c>
@@ -1920,7 +1960,7 @@
       <c r="L61" s="22"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>28</v>
       </c>
@@ -1932,7 +1972,7 @@
       <c r="L62" s="22"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>29</v>
       </c>
@@ -1946,7 +1986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>30</v>
       </c>
@@ -1958,7 +1998,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="23"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>31</v>
       </c>
@@ -1970,7 +2010,7 @@
       <c r="L65" s="35"/>
       <c r="M65" s="23"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1985,7 +2025,7 @@
       <c r="L66" s="22"/>
       <c r="M66" s="23"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>2</v>
       </c>
@@ -1997,7 +2037,7 @@
       <c r="L67" s="35"/>
       <c r="M67" s="23"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>3</v>
       </c>
@@ -2009,7 +2049,7 @@
       <c r="L68" s="22"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>4</v>
       </c>
@@ -2023,7 +2063,7 @@
       <c r="L69" s="22"/>
       <c r="M69" s="26"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
         <v>5</v>
       </c>
@@ -2037,7 +2077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>6</v>
       </c>
@@ -2049,7 +2089,7 @@
       <c r="L71" s="22"/>
       <c r="M71" s="23"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>7</v>
       </c>
@@ -2061,7 +2101,7 @@
       <c r="L72" s="35"/>
       <c r="M72" s="23"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>8</v>
       </c>
@@ -2073,7 +2113,7 @@
       <c r="L73" s="22"/>
       <c r="M73" s="23"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>9</v>
       </c>
@@ -2085,7 +2125,7 @@
       <c r="L74" s="35"/>
       <c r="M74" s="23"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>10</v>
       </c>
@@ -2097,7 +2137,7 @@
       <c r="L75" s="22"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>11</v>
       </c>
@@ -2109,7 +2149,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
         <v>12</v>
       </c>
@@ -2123,7 +2163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>13</v>
       </c>
@@ -2135,7 +2175,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="23"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>14</v>
       </c>
@@ -2147,7 +2187,7 @@
       <c r="L79" s="35"/>
       <c r="M79" s="23"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>15</v>
       </c>
@@ -2159,7 +2199,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="23"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>16</v>
       </c>
@@ -2171,7 +2211,7 @@
       <c r="L81" s="35"/>
       <c r="M81" s="23"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>17</v>
       </c>
@@ -2183,7 +2223,7 @@
       <c r="L82" s="22"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>18</v>
       </c>
@@ -2195,7 +2235,7 @@
       <c r="L83" s="22"/>
       <c r="M83" s="26"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>19</v>
       </c>
@@ -2209,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>20</v>
       </c>
@@ -2221,7 +2261,7 @@
       <c r="L85" s="22"/>
       <c r="M85" s="23"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>21</v>
       </c>
@@ -2233,7 +2273,7 @@
       <c r="L86" s="35"/>
       <c r="M86" s="23"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>22</v>
       </c>
@@ -2245,7 +2285,7 @@
       <c r="L87" s="22"/>
       <c r="M87" s="23"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>23</v>
       </c>
@@ -2257,7 +2297,7 @@
       <c r="L88" s="35"/>
       <c r="M88" s="23"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>24</v>
       </c>
@@ -2269,7 +2309,7 @@
       <c r="L89" s="22"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>25</v>
       </c>
@@ -2283,7 +2323,7 @@
       <c r="L90" s="22"/>
       <c r="M90" s="26"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>26</v>
       </c>
@@ -2297,7 +2337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>27</v>
       </c>
@@ -2309,7 +2349,7 @@
       <c r="L92" s="22"/>
       <c r="M92" s="23"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>28</v>
       </c>

--- a/项目梳理.xlsx
+++ b/项目梳理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yilang/Desktop/Github/LearningLab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\LearningLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23020" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23016" windowHeight="17436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,27 +915,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="124" zoomScaleNormal="92" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="92" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
@@ -974,7 +974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2">
         <v>29</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="64.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3">
         <v>30</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>12</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -1056,7 +1056,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -1076,7 +1076,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8">
         <v>5</v>
@@ -1114,7 +1114,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9">
         <v>6</v>
@@ -1132,7 +1132,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10">
         <v>7</v>
@@ -1151,7 +1151,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11">
         <v>8</v>
@@ -1169,7 +1169,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="1">
         <v>9</v>
@@ -1185,7 +1185,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="48.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -1209,7 +1209,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15">
         <v>12</v>
@@ -1243,7 +1243,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16">
         <v>13</v>
@@ -1259,7 +1259,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17">
         <v>14</v>
@@ -1278,7 +1278,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="24"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18">
         <v>15</v>
@@ -1297,7 +1297,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="1">
         <v>16</v>
@@ -1316,7 +1316,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="1">
         <v>17</v>
@@ -1345,7 +1345,7 @@
       <c r="M20" s="26"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="2">
         <v>18</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22">
         <v>19</v>
@@ -1391,7 +1391,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23">
         <v>20</v>
@@ -1408,7 +1408,7 @@
       <c r="M23" s="23"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24">
         <v>21</v>
@@ -1425,7 +1425,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25">
         <v>22</v>
@@ -1444,7 +1444,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="1">
         <v>23</v>
@@ -1463,7 +1463,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="1">
         <v>24</v>
@@ -1482,7 +1482,7 @@
       <c r="M27" s="26"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="2">
         <v>25</v>
@@ -1503,7 +1503,8 @@
       </c>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
       <c r="B29">
         <v>26</v>
       </c>
@@ -1519,7 +1520,8 @@
       <c r="M29" s="23"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
       <c r="B30">
         <v>27</v>
       </c>
@@ -1535,7 +1537,8 @@
       <c r="M30" s="23"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
       <c r="B31">
         <v>28</v>
       </c>
@@ -1551,7 +1554,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -1586,7 +1589,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -1601,7 +1604,7 @@
       <c r="M34" s="26"/>
       <c r="N34" s="25"/>
     </row>
-    <row r="35" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1623,7 +1626,7 @@
       </c>
       <c r="N35" s="25"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2</v>
       </c>
@@ -1638,7 +1641,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>3</v>
       </c>
@@ -1653,7 +1656,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="25"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>4</v>
       </c>
@@ -1668,7 +1671,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5</v>
       </c>
@@ -1682,7 +1685,7 @@
       <c r="L39" s="22"/>
       <c r="M39" s="23"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>7</v>
       </c>
@@ -1712,7 +1715,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>8</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>9</v>
       </c>
@@ -1738,7 +1741,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>10</v>
       </c>
@@ -1750,7 +1753,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>11</v>
       </c>
@@ -1762,7 +1765,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>12</v>
       </c>
@@ -1774,7 +1777,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>13</v>
       </c>
@@ -1786,7 +1789,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>14</v>
       </c>
@@ -1798,7 +1801,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="26"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>15</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>16</v>
       </c>
@@ -1824,7 +1827,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>17</v>
       </c>
@@ -1836,7 +1839,7 @@
       <c r="L51" s="22"/>
       <c r="M51" s="23"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>18</v>
       </c>
@@ -1848,7 +1851,7 @@
       <c r="L52" s="22"/>
       <c r="M52" s="23"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>19</v>
       </c>
@@ -1860,7 +1863,7 @@
       <c r="L53" s="22"/>
       <c r="M53" s="23"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>20</v>
       </c>
@@ -1872,7 +1875,7 @@
       <c r="L54" s="22"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>21</v>
       </c>
@@ -1886,7 +1889,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>22</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>23</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="23"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>24</v>
       </c>
@@ -1924,7 +1927,7 @@
       <c r="L58" s="35"/>
       <c r="M58" s="23"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>25</v>
       </c>
@@ -1936,7 +1939,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="23"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>26</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="L60" s="35"/>
       <c r="M60" s="23"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>27</v>
       </c>
@@ -1960,7 +1963,7 @@
       <c r="L61" s="22"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>28</v>
       </c>
@@ -1972,7 +1975,7 @@
       <c r="L62" s="22"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>29</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>30</v>
       </c>
@@ -1998,7 +2001,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="23"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>31</v>
       </c>
@@ -2010,7 +2013,7 @@
       <c r="L65" s="35"/>
       <c r="M65" s="23"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2025,7 +2028,7 @@
       <c r="L66" s="22"/>
       <c r="M66" s="23"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>2</v>
       </c>
@@ -2037,7 +2040,7 @@
       <c r="L67" s="35"/>
       <c r="M67" s="23"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>3</v>
       </c>
@@ -2049,7 +2052,7 @@
       <c r="L68" s="22"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>4</v>
       </c>
@@ -2063,7 +2066,7 @@
       <c r="L69" s="22"/>
       <c r="M69" s="26"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>5</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>6</v>
       </c>
@@ -2089,7 +2092,7 @@
       <c r="L71" s="22"/>
       <c r="M71" s="23"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>7</v>
       </c>
@@ -2101,7 +2104,7 @@
       <c r="L72" s="35"/>
       <c r="M72" s="23"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>8</v>
       </c>
@@ -2113,7 +2116,7 @@
       <c r="L73" s="22"/>
       <c r="M73" s="23"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>9</v>
       </c>
@@ -2125,7 +2128,7 @@
       <c r="L74" s="35"/>
       <c r="M74" s="23"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>10</v>
       </c>
@@ -2137,7 +2140,7 @@
       <c r="L75" s="22"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>11</v>
       </c>
@@ -2149,7 +2152,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>12</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>13</v>
       </c>
@@ -2175,7 +2178,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="23"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>14</v>
       </c>
@@ -2187,7 +2190,7 @@
       <c r="L79" s="35"/>
       <c r="M79" s="23"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>15</v>
       </c>
@@ -2199,7 +2202,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="23"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>16</v>
       </c>
@@ -2211,7 +2214,7 @@
       <c r="L81" s="35"/>
       <c r="M81" s="23"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>17</v>
       </c>
@@ -2223,7 +2226,7 @@
       <c r="L82" s="22"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>18</v>
       </c>
@@ -2235,7 +2238,7 @@
       <c r="L83" s="22"/>
       <c r="M83" s="26"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>19</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>20</v>
       </c>
@@ -2261,7 +2264,7 @@
       <c r="L85" s="22"/>
       <c r="M85" s="23"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>21</v>
       </c>
@@ -2273,7 +2276,7 @@
       <c r="L86" s="35"/>
       <c r="M86" s="23"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>22</v>
       </c>
@@ -2285,7 +2288,7 @@
       <c r="L87" s="22"/>
       <c r="M87" s="23"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>23</v>
       </c>
@@ -2297,7 +2300,7 @@
       <c r="L88" s="35"/>
       <c r="M88" s="23"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>24</v>
       </c>
@@ -2309,7 +2312,7 @@
       <c r="L89" s="22"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>25</v>
       </c>
@@ -2323,7 +2326,7 @@
       <c r="L90" s="22"/>
       <c r="M90" s="26"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>26</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>27</v>
       </c>
@@ -2349,7 +2352,7 @@
       <c r="L92" s="22"/>
       <c r="M92" s="23"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>28</v>
       </c>

--- a/项目梳理.xlsx
+++ b/项目梳理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\LearningLab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yilang/Desktop/Github/LearningLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23016" windowHeight="17436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23020" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>论文大纲</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,11 +224,70 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>研读间</t>
+  </si>
+  <si>
+    <t>研读间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品整理思考修改方向</t>
+    <rPh sb="0" eb="1">
+      <t>zuo'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si'kao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周必须完成一</t>
+    <rPh sb="0" eb="1">
+      <t>ben'zhou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'xu'wan'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>份三四千字的</t>
+    <rPh sb="0" eb="1">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>san'si'qian'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研读间     初稿！</t>
+    <rPh sb="8" eb="9">
+      <t>chu'gao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +646,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,27 +977,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="92" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="111" zoomScaleNormal="79" zoomScalePageLayoutView="79" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="36"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
@@ -974,7 +1036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
       <c r="B2">
         <v>29</v>
@@ -991,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="64.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3">
         <v>30</v>
@@ -1023,7 +1085,7 @@
       </c>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <v>12</v>
       </c>
@@ -1040,7 +1102,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -1056,7 +1118,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -1076,7 +1138,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="2">
         <v>4</v>
@@ -1096,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8">
         <v>5</v>
@@ -1114,7 +1176,7 @@
       <c r="L8" s="22"/>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9">
         <v>6</v>
@@ -1132,7 +1194,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="23"/>
     </row>
-    <row r="10" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10">
         <v>7</v>
@@ -1151,7 +1213,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11">
         <v>8</v>
@@ -1169,7 +1231,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="1">
         <v>9</v>
@@ -1185,7 +1247,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="48.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -1209,7 +1271,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="2">
         <v>11</v>
@@ -1227,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15">
         <v>12</v>
@@ -1243,7 +1305,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16">
         <v>13</v>
@@ -1259,7 +1321,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17">
         <v>14</v>
@@ -1278,7 +1340,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="24"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18">
         <v>15</v>
@@ -1297,7 +1359,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="1">
         <v>16</v>
@@ -1316,7 +1378,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="1">
         <v>17</v>
@@ -1345,7 +1407,7 @@
       <c r="M20" s="26"/>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="2">
         <v>18</v>
@@ -1372,7 +1434,7 @@
       </c>
       <c r="N21" s="25"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22">
         <v>19</v>
@@ -1391,7 +1453,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="25"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23">
         <v>20</v>
@@ -1408,7 +1470,7 @@
       <c r="M23" s="23"/>
       <c r="N23" s="25"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24">
         <v>21</v>
@@ -1425,7 +1487,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25">
         <v>22</v>
@@ -1444,7 +1506,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="1">
         <v>23</v>
@@ -1463,7 +1525,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="1">
         <v>24</v>
@@ -1482,7 +1544,7 @@
       <c r="M27" s="26"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="2">
         <v>25</v>
@@ -1503,7 +1565,7 @@
       </c>
       <c r="N28" s="25"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
       <c r="B29">
         <v>26</v>
@@ -1520,7 +1582,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30">
         <v>27</v>
@@ -1537,7 +1599,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31">
         <v>28</v>
@@ -1554,7 +1616,8 @@
       <c r="M31" s="2"/>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -1572,7 +1635,8 @@
       <c r="M32" s="23"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="36"/>
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -1589,7 +1653,8 @@
       <c r="M33" s="2"/>
       <c r="N33" s="25"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -1604,8 +1669,8 @@
       <c r="M34" s="26"/>
       <c r="N34" s="25"/>
     </row>
-    <row r="35" spans="1:14" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:14" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36">
         <v>1</v>
       </c>
       <c r="B35" s="1">
@@ -1626,7 +1691,8 @@
       </c>
       <c r="N35" s="25"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
       <c r="B36">
         <v>2</v>
       </c>
@@ -1641,7 +1707,8 @@
       <c r="M36" s="23"/>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="36"/>
       <c r="B37">
         <v>3</v>
       </c>
@@ -1656,7 +1723,8 @@
       <c r="M37" s="23"/>
       <c r="N37" s="25"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="36"/>
       <c r="B38">
         <v>4</v>
       </c>
@@ -1671,7 +1739,8 @@
       <c r="M38" s="2"/>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="36"/>
       <c r="B39">
         <v>5</v>
       </c>
@@ -1685,7 +1754,8 @@
       <c r="L39" s="22"/>
       <c r="M39" s="23"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="36"/>
       <c r="B40" s="1">
         <v>6</v>
       </c>
@@ -1699,7 +1769,8 @@
       <c r="L40" s="22"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="36"/>
       <c r="B41" s="1">
         <v>7</v>
       </c>
@@ -1715,12 +1786,14 @@
       <c r="L41" s="22"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>8</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="H42" s="30"/>
+      <c r="H42" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="I42" s="20"/>
       <c r="J42" s="21"/>
       <c r="K42" s="1"/>
@@ -1729,11 +1802,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>9</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H43" s="30"/>
       <c r="I43" s="20"/>
       <c r="J43" s="21"/>
@@ -1741,11 +1816,13 @@
       <c r="L43" s="22"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>10</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="H44" s="30"/>
       <c r="I44" s="20"/>
       <c r="J44" s="21"/>
@@ -1753,19 +1830,21 @@
       <c r="L44" s="22"/>
       <c r="M44" s="23"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>11</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="H45" s="18"/>
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
       <c r="K45" s="1"/>
       <c r="L45" s="22"/>
-      <c r="M45" s="23"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>12</v>
       </c>
@@ -1777,11 +1856,13 @@
       <c r="L46" s="22"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>13</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="H47" s="18"/>
       <c r="I47" s="20"/>
       <c r="J47" s="21"/>
@@ -1789,11 +1870,13 @@
       <c r="L47" s="22"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>14</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H48" s="18"/>
       <c r="I48" s="20"/>
       <c r="J48" s="21"/>
@@ -1801,7 +1884,7 @@
       <c r="L48" s="22"/>
       <c r="M48" s="26"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>15</v>
       </c>
@@ -1815,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>16</v>
       </c>
@@ -1827,7 +1910,7 @@
       <c r="L50" s="22"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>17</v>
       </c>
@@ -1839,19 +1922,21 @@
       <c r="L51" s="22"/>
       <c r="M51" s="23"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>18</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H52" s="18"/>
       <c r="I52" s="20"/>
       <c r="J52" s="21"/>
       <c r="K52" s="1"/>
       <c r="L52" s="22"/>
-      <c r="M52" s="23"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>19</v>
       </c>
@@ -1863,7 +1948,7 @@
       <c r="L53" s="22"/>
       <c r="M53" s="23"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>20</v>
       </c>
@@ -1875,7 +1960,7 @@
       <c r="L54" s="22"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>21</v>
       </c>
@@ -1889,7 +1974,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>22</v>
       </c>
@@ -1903,7 +1988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>23</v>
       </c>
@@ -1915,7 +2000,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="23"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>24</v>
       </c>
@@ -1927,7 +2012,7 @@
       <c r="L58" s="35"/>
       <c r="M58" s="23"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>25</v>
       </c>
@@ -1937,9 +2022,9 @@
       <c r="J59" s="21"/>
       <c r="K59" s="1"/>
       <c r="L59" s="22"/>
-      <c r="M59" s="23"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>26</v>
       </c>
@@ -1951,7 +2036,7 @@
       <c r="L60" s="35"/>
       <c r="M60" s="23"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>27</v>
       </c>
@@ -1963,7 +2048,7 @@
       <c r="L61" s="22"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>28</v>
       </c>
@@ -1975,7 +2060,7 @@
       <c r="L62" s="22"/>
       <c r="M62" s="26"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>29</v>
       </c>
@@ -1989,7 +2074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>30</v>
       </c>
@@ -2001,7 +2086,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="23"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>31</v>
       </c>
@@ -2013,7 +2098,7 @@
       <c r="L65" s="35"/>
       <c r="M65" s="23"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2026,9 +2111,9 @@
       <c r="J66" s="21"/>
       <c r="K66" s="1"/>
       <c r="L66" s="22"/>
-      <c r="M66" s="23"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>2</v>
       </c>
@@ -2040,7 +2125,7 @@
       <c r="L67" s="35"/>
       <c r="M67" s="23"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>3</v>
       </c>
@@ -2052,7 +2137,7 @@
       <c r="L68" s="22"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <v>4</v>
       </c>
@@ -2066,7 +2151,7 @@
       <c r="L69" s="22"/>
       <c r="M69" s="26"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
         <v>5</v>
       </c>
@@ -2080,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>6</v>
       </c>
@@ -2092,7 +2177,7 @@
       <c r="L71" s="22"/>
       <c r="M71" s="23"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>7</v>
       </c>
@@ -2104,7 +2189,7 @@
       <c r="L72" s="35"/>
       <c r="M72" s="23"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>8</v>
       </c>
@@ -2114,9 +2199,9 @@
       <c r="J73" s="21"/>
       <c r="K73" s="1"/>
       <c r="L73" s="22"/>
-      <c r="M73" s="23"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>9</v>
       </c>
@@ -2128,7 +2213,7 @@
       <c r="L74" s="35"/>
       <c r="M74" s="23"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>10</v>
       </c>
@@ -2140,7 +2225,7 @@
       <c r="L75" s="22"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <v>11</v>
       </c>
@@ -2152,7 +2237,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="26"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
         <v>12</v>
       </c>
@@ -2162,11 +2247,9 @@
       <c r="J77" s="31"/>
       <c r="K77" s="1"/>
       <c r="L77" s="22"/>
-      <c r="M77" s="23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>13</v>
       </c>
@@ -2176,9 +2259,9 @@
       <c r="J78" s="31"/>
       <c r="K78" s="1"/>
       <c r="L78" s="22"/>
-      <c r="M78" s="23"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>14</v>
       </c>
@@ -2188,9 +2271,9 @@
       <c r="J79" s="21"/>
       <c r="K79" s="1"/>
       <c r="L79" s="35"/>
-      <c r="M79" s="23"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>15</v>
       </c>
@@ -2200,9 +2283,9 @@
       <c r="J80" s="21"/>
       <c r="K80" s="1"/>
       <c r="L80" s="22"/>
-      <c r="M80" s="23"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>16</v>
       </c>
@@ -2212,9 +2295,9 @@
       <c r="J81" s="21"/>
       <c r="K81" s="1"/>
       <c r="L81" s="35"/>
-      <c r="M81" s="23"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>17</v>
       </c>
@@ -2226,7 +2309,7 @@
       <c r="L82" s="22"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <v>18</v>
       </c>
@@ -2238,7 +2321,7 @@
       <c r="L83" s="22"/>
       <c r="M83" s="26"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>19</v>
       </c>
@@ -2248,11 +2331,9 @@
       <c r="J84" s="31"/>
       <c r="K84" s="1"/>
       <c r="L84" s="22"/>
-      <c r="M84" s="23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>20</v>
       </c>
@@ -2262,9 +2343,9 @@
       <c r="J85" s="31"/>
       <c r="K85" s="1"/>
       <c r="L85" s="22"/>
-      <c r="M85" s="23"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>21</v>
       </c>
@@ -2274,9 +2355,11 @@
       <c r="J86" s="21"/>
       <c r="K86" s="1"/>
       <c r="L86" s="35"/>
-      <c r="M86" s="23"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>22</v>
       </c>
@@ -2288,7 +2371,7 @@
       <c r="L87" s="22"/>
       <c r="M87" s="23"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>23</v>
       </c>
@@ -2300,7 +2383,7 @@
       <c r="L88" s="35"/>
       <c r="M88" s="23"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>24</v>
       </c>
@@ -2312,7 +2395,7 @@
       <c r="L89" s="22"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>25</v>
       </c>
@@ -2326,7 +2409,7 @@
       <c r="L90" s="22"/>
       <c r="M90" s="26"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>26</v>
       </c>
@@ -2337,10 +2420,10 @@
       <c r="K91" s="1"/>
       <c r="L91" s="35"/>
       <c r="M91" s="23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>27</v>
       </c>
@@ -2352,7 +2435,7 @@
       <c r="L92" s="22"/>
       <c r="M92" s="23"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>28</v>
       </c>
